--- a/农业观光园爬取网址.xlsx
+++ b/农业观光园爬取网址.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fring/PycharmProjects/DaZhongDianPing-master/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7E19E4-A927-494A-90F7-0DD6383BF2B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>圣露庄园</t>
   </si>
@@ -313,152 +319,194 @@
     <t>http://www.dianping.com/shop/l46lHdnHM1GHlraW</t>
   </si>
   <si>
-    <t>共享花田亲自农场</t>
+    <t>http://www.dianping.com/shop/G7PxGt8assMm6W6X</t>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/F4ZFYPxA1s4XPIyg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大芦荡樱桃采摘园区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/l5K6YYusFwOqZEAO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 双新垂钓园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享花田亲子农场</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/l8SCdjEOJxGtP8BW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鹏垂钓园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/k3ZcQkoKGaGZfz8s</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔鲜生农园·庞各庄西瓜草莓采摘园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/G3kmLKFdALvv9OHN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>英龙苹果采摘园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠农金源草莓葡萄采摘园(大东新村店)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/G8wRhMPMvyehcLp8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏场河畔农庄采摘园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/G618KxXrnhnYO6P1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>友仁草莓蔬菜采摘园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/H3lhYeQDBuNCQbgs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大桃采摘新宇桃园(平谷店)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/iPn9y3ub7sLOuxMj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙溪农庄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/G3JMusI9OcpfCLxm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>老宋草莓采摘种植园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/H4DrzEPmTcDJ0Hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小武草莓采摘园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>http://www.dianping.com/shop/l5wTtzKGgqbkuGZ8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 酷鱼垂钓CLUB(朝阳区博大路店 )</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/l5BKXms7pQ9METlq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金色秋天葡萄采摘园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/lafTCsKB70bNfPGJ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星草莓生态采摘园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/k313ygfGm0MmJc5v</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大自然农场草莓采摘园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/H4QcfNR3Mlt5vRmj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘师傅草莓采摘园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/G1eEk0V97p65HhF6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾蟹友鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/EZMXn3ebRmcLXeKw</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞各庄翠芳园西瓜蔬菜基地采摘园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/laqOPTM0P7DU0G2b</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活家亲子农场</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/l5jHePBninLsW8iX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三棵树农场</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/l49KriFkSQyA9MCp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>北京红樱观光采摘园</t>
-  </si>
-  <si>
-    <t>三棵树农场</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/l49KriFkSQyA9MCp</t>
-  </si>
-  <si>
-    <t>生活家亲子农场</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/l5jHePBninLsW8iX</t>
-  </si>
-  <si>
-    <t>庞各庄翠芳园西瓜蔬菜基地采摘园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/laqOPTM0P7DU0G2b</t>
-  </si>
-  <si>
-    <t>虾蟹友鱼</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/EZMXn3ebRmcLXeKw</t>
-  </si>
-  <si>
-    <t>刘师傅草莓采摘园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/G1eEk0V97p65HhF6</t>
-  </si>
-  <si>
-    <t>大自然农场草莓采摘园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/H4QcfNR3Mlt5vRmj</t>
-  </si>
-  <si>
-    <t>红星草莓生态采摘园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/k313ygfGm0MmJc5v</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 金色秋天葡萄采摘园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/lafTCsKB70bNfPGJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 酷鱼垂钓CLUB(朝阳区博大路店 )</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/l5BKXms7pQ9METlq</t>
-  </si>
-  <si>
-    <t>小武草莓采摘园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/G7PxGt8assMm6W6X</t>
-  </si>
-  <si>
-    <t>老宋草莓采摘种植园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/H4DrzEPmTcDJ0Hhl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙溪农庄</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/G3JMusI9OcpfCLxm</t>
-  </si>
-  <si>
-    <t>大桃采摘新宇桃园(平谷店)</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/iPn9y3ub7sLOuxMj</t>
-  </si>
-  <si>
-    <t>友仁草莓蔬菜采摘园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/H3lhYeQDBuNCQbgs</t>
-  </si>
-  <si>
-    <t>夏场河畔农庄采摘园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/G618KxXrnhnYO6P1</t>
-  </si>
-  <si>
-    <t>惠农金源草莓葡萄采摘园(大东新村店)</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/G8wRhMPMvyehcLp8</t>
-  </si>
-  <si>
-    <t>英龙苹果采摘园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/G3kmLKFdALvv9OHN</t>
-  </si>
-  <si>
-    <t>崔鲜生农园·庞各庄西瓜草莓采摘园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/k3ZcQkoKGaGZfz8s</t>
-  </si>
-  <si>
-    <t>大鹏垂钓园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/l8SCdjEOJxGtP8BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 双新垂钓园</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/l5K6YYusFwOqZEAO</t>
-  </si>
-  <si>
-    <t>大芦荡樱桃采摘园区</t>
-  </si>
-  <si>
-    <t>http://www.dianping.com/shop/F4ZFYPxA1s4XPIyg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/l46lHdnHM1GHlraW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,22 +519,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -495,6 +528,25 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -502,139 +554,27 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,192 +583,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -836,277 +596,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1115,62 +636,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1428,23 +921,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="57.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="95.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="52.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="95.33203125" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1575,7 +1068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1583,7 +1076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1591,7 +1084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1599,7 +1092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -1618,7 +1111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -1626,7 +1119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1634,7 +1127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -1642,7 +1135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1650,7 +1143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -1658,7 +1151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
@@ -1666,7 +1159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
@@ -1674,7 +1167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -1682,7 +1175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
         <v>57</v>
       </c>
@@ -1690,7 +1183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
@@ -1698,7 +1191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -1706,7 +1199,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -1714,7 +1207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
         <v>65</v>
       </c>
@@ -1722,7 +1215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
         <v>67</v>
       </c>
@@ -1730,7 +1223,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -1739,10 +1232,10 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -1859,188 +1352,188 @@
       </c>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="6" t="s">
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2128,80 +1621,80 @@
       <c r="B93" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="http://www.dianping.com/shop/G8LOUTwAnOAYzw4o"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://www.dianping.com/shop/l39TFN5SYCODrhN5"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://www.dianping.com/shop/l7l84L9VsXbjQz7R"/>
-    <hyperlink ref="B4" r:id="rId4" display="http://www.dianping.com/shop/H2IouwmxWsxKCBL7"/>
-    <hyperlink ref="B5" r:id="rId5" display="http://www.dianping.com/shop/H5gazsja2kaymGRq"/>
-    <hyperlink ref="B6" r:id="rId6" display="http://www.dianping.com/shop/G79DOpZUjNuJr70e"/>
-    <hyperlink ref="B7" r:id="rId7" display="http://www.dianping.com/shop/l19Cg03wVIqEcIjt"/>
-    <hyperlink ref="B8" r:id="rId8" display="http://www.dianping.com/shop/kaBa6u9cDBXw0mi3"/>
-    <hyperlink ref="B50" r:id="rId9" display="http://www.dianping.com/shop/l5wTtzKGgqbkuGZ8"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://www.dianping.com/shop/HaveRBb39bnZZriB"/>
-    <hyperlink ref="B15" r:id="rId11" display="http://www.dianping.com/shop/k9LFVS5MU0uYIf1f"/>
-    <hyperlink ref="B16" r:id="rId12" display="http://www.dianping.com/shop/k52wHQf7ppsZYz4e"/>
-    <hyperlink ref="B24" r:id="rId13" display="http://www.dianping.com/shop/H2e2SHZ4m4aaN8zb"/>
-    <hyperlink ref="B37" r:id="rId14" display="http://www.dianping.com/shop/issxn96WYmSEbdJv"/>
-    <hyperlink ref="B9" r:id="rId15" display="http://www.dianping.com/shop/l18QXcNPRv5fSrdR"/>
-    <hyperlink ref="B10" r:id="rId16" display="http://www.dianping.com/shop/H9cQ1X9LAm9QYMoI"/>
-    <hyperlink ref="B12" r:id="rId16" display="http://www.dianping.com/shop/H9cQ1X9LAm9QYMoI"/>
-    <hyperlink ref="B13" r:id="rId17" display="http://www.dianping.com/shop/G1J8eoFx62DOl0mc"/>
-    <hyperlink ref="B14" r:id="rId18" display="http://www.dianping.com/shop/FusuWiq8OoV8RA2M"/>
-    <hyperlink ref="B17" r:id="rId19" display="http://www.dianping.com/shop/HamWUOmedXrRzOuS"/>
-    <hyperlink ref="B18" r:id="rId20" display="http://www.dianping.com/shop/l1C4rUMCsm60elaF"/>
-    <hyperlink ref="B19" r:id="rId21" display="http://www.dianping.com/shop/l5yqkKHQnV0r5fgJ"/>
-    <hyperlink ref="B20" r:id="rId22" display="http://www.dianping.com/shop/G8T0Q3lVeyUJ7yjd"/>
-    <hyperlink ref="B22" r:id="rId23" display="http://www.dianping.com/shop/k7W5qAp5SWTBOGPG"/>
-    <hyperlink ref="B23" r:id="rId24" display="http://www.dianping.com/shop/H9emzkfS4SjdmwOv"/>
-    <hyperlink ref="B25" r:id="rId25" display="http://www.dianping.com/shop/k4IWMjVbCahoWjrc"/>
-    <hyperlink ref="B26" r:id="rId26" display="http://www.dianping.com/shop/l5uM4587r0AMM3qU"/>
-    <hyperlink ref="B27" r:id="rId27" display="http://www.dianping.com/shop/Ga144uZVJjGfzH7b"/>
-    <hyperlink ref="B28" r:id="rId28" display="http://www.dianping.com/shop/H3zpEf2X91s0QTFq"/>
-    <hyperlink ref="B29" r:id="rId29" display="http://www.dianping.com/shop/k4gvpvMn49iF2Bjy"/>
-    <hyperlink ref="B30" r:id="rId30" display="http://www.dianping.com/shop/EOHOx0glNZM8yl4T"/>
-    <hyperlink ref="B31" r:id="rId31" display="http://www.dianping.com/shop/j56uKnAKyE2JP3g5"/>
-    <hyperlink ref="B32" r:id="rId32" display="http://www.dianping.com/shop/l5mM3iPJAbVCJYtG"/>
-    <hyperlink ref="B33" r:id="rId33" display="http://www.dianping.com/shop/G2vDdjwJCHPgkU8L"/>
-    <hyperlink ref="B34" r:id="rId34" display="http://www.dianping.com/shop/k5BHPMKZE45QumVN"/>
-    <hyperlink ref="B35" r:id="rId35" display="http://www.dianping.com/shop/G1lbFZ0KW5mSfM6F"/>
-    <hyperlink ref="B36" r:id="rId36" display="http://www.dianping.com/shop/G7GFdvAxaeMFSnks"/>
-    <hyperlink ref="B38" r:id="rId37" display="http://www.dianping.com/shop/k9ujt4TB8kjZMA6m"/>
-    <hyperlink ref="B39" r:id="rId38" display="http://www.dianping.com/shop/G3BiQpiFrX1urmIC"/>
-    <hyperlink ref="B40" r:id="rId39" display="http://www.dianping.com/shop/H1vPtT13TkuNP4GN"/>
-    <hyperlink ref="B41" r:id="rId40" display="http://www.dianping.com/shop/FZtTWSskdSq9oeys"/>
-    <hyperlink ref="B42" r:id="rId41" display="http://www.dianping.com/shop/k3CnqfAIzXgKybdo"/>
-    <hyperlink ref="B43" r:id="rId42" display="http://www.dianping.com/shop/l3nsTEJgDW2aOjnL"/>
-    <hyperlink ref="B44" r:id="rId43" display="http://www.dianping.com/shop/H9Kv4z4CMZt5plfa"/>
-    <hyperlink ref="B45" r:id="rId44" display="http://www.dianping.com/shop/jVQkmOK5SNdaM6H3"/>
-    <hyperlink ref="B46" r:id="rId45" display="http://www.dianping.com/shop/l1IngPrvOP6Uyn6N"/>
-    <hyperlink ref="B47" r:id="rId46" display="http://www.dianping.com/shop/kaPnurpM2kPdTPMH"/>
-    <hyperlink ref="B48" r:id="rId47" display="http://www.dianping.com/shop/H8UmY95UhXPrDhMn"/>
-    <hyperlink ref="B49" r:id="rId48" display="http://www.dianping.com/shop/l46lHdnHM1GHlraW"/>
-    <hyperlink ref="B51" r:id="rId48" display="http://www.dianping.com/shop/l46lHdnHM1GHlraW"/>
-    <hyperlink ref="B52" r:id="rId49" display="http://www.dianping.com/shop/l49KriFkSQyA9MCp"/>
-    <hyperlink ref="B53" r:id="rId50" display="http://www.dianping.com/shop/l5jHePBninLsW8iX"/>
-    <hyperlink ref="B54" r:id="rId51" display="http://www.dianping.com/shop/laqOPTM0P7DU0G2b"/>
-    <hyperlink ref="B55" r:id="rId52" display="http://www.dianping.com/shop/EZMXn3ebRmcLXeKw"/>
-    <hyperlink ref="B56" r:id="rId53" display="http://www.dianping.com/shop/G1eEk0V97p65HhF6"/>
-    <hyperlink ref="B57" r:id="rId54" display="http://www.dianping.com/shop/H4QcfNR3Mlt5vRmj"/>
-    <hyperlink ref="B58" r:id="rId55" display="http://www.dianping.com/shop/k313ygfGm0MmJc5v"/>
-    <hyperlink ref="B59" r:id="rId56" display="http://www.dianping.com/shop/lafTCsKB70bNfPGJ"/>
-    <hyperlink ref="B60" r:id="rId57" display="http://www.dianping.com/shop/l5BKXms7pQ9METlq"/>
-    <hyperlink ref="B61" r:id="rId58" display="http://www.dianping.com/shop/G7PxGt8assMm6W6X"/>
-    <hyperlink ref="B62" r:id="rId59" display="http://www.dianping.com/shop/H4DrzEPmTcDJ0Hhl" tooltip="http://www.dianping.com/shop/H4DrzEPmTcDJ0Hhl"/>
-    <hyperlink ref="B63" r:id="rId60" display="http://www.dianping.com/shop/G3JMusI9OcpfCLxm"/>
-    <hyperlink ref="B64" r:id="rId61" display="http://www.dianping.com/shop/iPn9y3ub7sLOuxMj"/>
-    <hyperlink ref="B65" r:id="rId62" display="http://www.dianping.com/shop/H3lhYeQDBuNCQbgs"/>
-    <hyperlink ref="B66" r:id="rId63" display="http://www.dianping.com/shop/G618KxXrnhnYO6P1"/>
-    <hyperlink ref="B67" r:id="rId64" display="http://www.dianping.com/shop/G8wRhMPMvyehcLp8"/>
-    <hyperlink ref="B68" r:id="rId65" display="http://www.dianping.com/shop/G3kmLKFdALvv9OHN"/>
-    <hyperlink ref="B69" r:id="rId66" display="http://www.dianping.com/shop/k3ZcQkoKGaGZfz8s"/>
-    <hyperlink ref="B70" r:id="rId67" display="http://www.dianping.com/shop/l8SCdjEOJxGtP8BW"/>
-    <hyperlink ref="B71" r:id="rId68" display="http://www.dianping.com/shop/l5K6YYusFwOqZEAO"/>
-    <hyperlink ref="B72" r:id="rId69" display="http://www.dianping.com/shop/F4ZFYPxA1s4XPIyg"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B50" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B37" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B14" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B20" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B22" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B23" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B33" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B34" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B35" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B36" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>